--- a/assignments/hw1/hierarchy/Report.xlsx
+++ b/assignments/hw1/hierarchy/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ssofok02_ucy_ac_cy/Documents/EPL499/GitHub/cs499-fa22/assignments/hw1/hierarchy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{2D3048AE-4F39-4916-A0D9-FA06BBF34B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE48231-3D5A-4674-8FDE-71D1DC9DF73B}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2D3048AE-4F39-4916-A0D9-FA06BBF34B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA4F9D6-95BA-43ED-98B2-9BD4DA72EEAD}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3615" windowWidth="21600" windowHeight="11872" xr2:uid="{E9ABF3F4-6322-4119-B0AD-B2C2E3579FA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{E9ABF3F4-6322-4119-B0AD-B2C2E3579FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
